--- a/media/BAJAJ-PL/TC Incentive/FEB 22/BAJAJ-PL TC Incentive Group.xlsx
+++ b/media/BAJAJ-PL/TC Incentive/FEB 22/BAJAJ-PL TC Incentive Group.xlsx
@@ -468,11 +468,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2315.44</v>
       </c>
     </row>
     <row r="3">
@@ -488,11 +488,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1113.58</v>
+        <v>9993.120000000001</v>
       </c>
     </row>
     <row r="4">
@@ -503,16 +503,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>MORE THAN DEMAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10355.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -528,11 +528,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2810.98</v>
       </c>
     </row>
   </sheetData>
